--- a/teams/benefits-portfolio/benefits-intake-optimization/post-go-live/21p-601/21P-601 Post-Go-Live Submission Tracker.xlsx
+++ b/teams/benefits-portfolio/benefits-intake-optimization/post-go-live/21p-601/21P-601 Post-Go-Live Submission Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f465efd6b01b8bba/Documents/GingerHorizonsGroup_Projects/AgileSix/BIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{63E74CCD-188C-4C71-8FF7-4E1CB0B64D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76C849BB-A87E-4865-9DD7-B88A870B4304}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{63E74CCD-188C-4C71-8FF7-4E1CB0B64D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{463183D2-8010-4700-B11B-17012CCFE9D8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF2C844A-C5C8-460C-A4FB-B4FB01059A32}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>UUID</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>21P-601 Post-Go-Live Submission Tracker</t>
+  </si>
+  <si>
+    <t>d1563d68-e50e-4468-8815-fea45fe32e7f</t>
+  </si>
+  <si>
+    <t>vbms</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>d16932cd-60f9-4e52-9caa-193c7c9028b5</t>
+  </si>
+  <si>
+    <t>94dbe2ab-3dbb-43ae-9b11-5ee25c8fbc92</t>
+  </si>
+  <si>
+    <t>9aa5fbad-1fe1-4487-a6e1-54c42bc5ad93</t>
+  </si>
+  <si>
+    <t>8caa0ca1-4388-4659-8452-aaa88f528a64</t>
   </si>
 </sst>
 </file>
@@ -616,6 +637,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,7 +963,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,11 +998,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(A8:A100000,"&lt;&gt;")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <f>B4/B3</f>
-        <v>0</v>
+        <v>1.3192612137203166E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,24 +1035,104 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>46043</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>46043</v>
+      </c>
+      <c r="F8">
+        <v>68094025</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>46043</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>46043</v>
+      </c>
+      <c r="F9">
+        <v>68093288</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>46038</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>46038</v>
+      </c>
+      <c r="F10">
+        <v>68041488</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>46037</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>46037</v>
+      </c>
+      <c r="F11">
+        <v>68001200</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>46035</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1">
+        <v>46035</v>
+      </c>
+      <c r="F12">
+        <v>67787787</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
